--- a/biology/Botanique/Ashwagandha/Ashwagandha.xlsx
+++ b/biology/Botanique/Ashwagandha/Ashwagandha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Withania somnifera
 L'Ashwagandha (Withania somnifera) est une plante de la famille des Solanaceae. 
-Elle fait partie de la pharmacopée traditionnelle de l'ayurveda en Inde et connaît en Occident, à la faveur des réseaux sociaux, une certaine visibilité au début des années 2020 pour ses bienfaits supposés[1]. 
-Quelques travaux suggèrent des effets bénéfiques avant tout sur l'anxiété[2] et dans une moindre mesure sur les capacités cognitives[3], le traitement du diabète[4] ou éventuellement l'endurance sportive[5]. Son utilisation est cependant déconseillée chez un certain nombre d'individus (femmes enceintes, personnes souffrant d'un dérèglement de la thyroïde, de maladies auto-immunes et de cancer hormonosensible de la prostate)[1],[6].
+Elle fait partie de la pharmacopée traditionnelle de l'ayurveda en Inde et connaît en Occident, à la faveur des réseaux sociaux, une certaine visibilité au début des années 2020 pour ses bienfaits supposés. 
+Quelques travaux suggèrent des effets bénéfiques avant tout sur l'anxiété et dans une moindre mesure sur les capacités cognitives, le traitement du diabète ou éventuellement l'endurance sportive. Son utilisation est cependant déconseillée chez un certain nombre d'individus (femmes enceintes, personnes souffrant d'un dérèglement de la thyroïde, de maladies auto-immunes et de cancer hormonosensible de la prostate),.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire Ashwagandha est une combinaison des mots sanskrits ashva (« cheval ») et gandha (« odeur »), en référence à la forte odeur de cheval qu'exhalent les racines de la plante[7].
-L'épithète spécifique somnifera signifie « induisant le sommeil »[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire Ashwagandha est une combinaison des mots sanskrits ashva (« cheval ») et gandha (« odeur »), en référence à la forte odeur de cheval qu'exhalent les racines de la plante.
+L'épithète spécifique somnifera signifie « induisant le sommeil ».
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Withania somnifera a été décrite par le naturaliste suédois Carl von Linné, puis reclassée en 1852 par le botaniste français Michel Félix Dunal[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Withania somnifera a été décrite par le naturaliste suédois Carl von Linné, puis reclassée en 1852 par le botaniste français Michel Félix Dunal.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire de l'Inde ; la surface cultivée pour l’Ashwagandha y représente environ 11 000 hectares, dont 4 000 dans les terres arides du Madhya Pradesh.
 Elle pousse aussi à l'état sauvage dans des endroits arides du Pakistan et du Sri Lanka.
@@ -610,11 +628,13 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les feuilles contiennent de nombreuses withanolides (« Ces withanolides possèdent diverses propriétés pharmacologiques et constituent de potentiels candidats pour des remèdes à haute valeur »[10]), des acides aminés libres, des alcaloïdes, de l’acide chlorogénique, des glycosides, des tannins, des flavonoïdes[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les feuilles contiennent de nombreuses withanolides (« Ces withanolides possèdent diverses propriétés pharmacologiques et constituent de potentiels candidats pour des remèdes à haute valeur »), des acides aminés libres, des alcaloïdes, de l’acide chlorogénique, des glycosides, des tannins, des flavonoïdes.
 Acides aminés libres (incluant l’acide aspartique, la glycine, la tyrosine, l’alanine, la proline, le tryptophanne, l’acide glutamique et la cystine).
-Withaférine A, pharmacologiquement validée quant à ses activités anti-tumorales, adaptogènes, anti-stress, anti-spasmodiques, immuno-modulatrices, neuroprotectrices, cardioprotectrices et anticancéreuses[12].
+Withaférine A, pharmacologiquement validée quant à ses activités anti-tumorales, adaptogènes, anti-stress, anti-spasmodiques, immuno-modulatrices, neuroprotectrices, cardioprotectrices et anticancéreuses.
 Les baies contiennent des tannins, des flavonoïdes, des acides aminés libres incluant la proline, la valine, la tyrosine, l’alanine, la glycine, l’hydroxyproline, l’acide aspartique, l’acide glutamique, la cystéine et la cystine.</t>
         </is>
       </c>
@@ -643,17 +663,19 @@
           <t>Propriétés et utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains composés de cette plante pourraient être actifs dans le traitement : 
-de l’insomnie[13],[14],[15] ;
-du stress chronique[16], du stress[14], par le biais de son action au niveau des neurotransmetteurs (cortisol, sérotonine, GABA )[17];
-de l’anxiété[18],[19] ;
-de l’inflammation arthritique[20];
-des troubles respiratoires[21];
-des problèmes d'infertilité masculine[22];
-et des maladies neurodégénératives[23].
-L’ashwagandha a également captivé l’attention du monde sportif en raison de son influence bénéfique sur des aspects clés de la performance physique. Des études ont démontré que la consommation quotidienne d'ashwagandha, à raison de 600 mg, aurait un impact positif sur l'endurance, permettant aux sportifs de maintenir leur effort sur une durée prolongée[24]. D'autre part, elle favoriserait l'amélioration de la VO2max, un paramètre important pour l'efficacité du système cardio-respiratoire lors de l'exercice physique[25]. Enfin, l’ashwagandha a également été associée à des gains de masse musculaire et de force[26]. Ces effets sont particulièrement intéressants pour les athlètes cherchant à optimiser leur performance et à développer leur musculature de manière naturelle.
+de l’insomnie ;
+du stress chronique, du stress, par le biais de son action au niveau des neurotransmetteurs (cortisol, sérotonine, GABA );
+de l’anxiété, ;
+de l’inflammation arthritique;
+des troubles respiratoires;
+des problèmes d'infertilité masculine;
+et des maladies neurodégénératives.
+L’ashwagandha a également captivé l’attention du monde sportif en raison de son influence bénéfique sur des aspects clés de la performance physique. Des études ont démontré que la consommation quotidienne d'ashwagandha, à raison de 600 mg, aurait un impact positif sur l'endurance, permettant aux sportifs de maintenir leur effort sur une durée prolongée. D'autre part, elle favoriserait l'amélioration de la VO2max, un paramètre important pour l'efficacité du système cardio-respiratoire lors de l'exercice physique. Enfin, l’ashwagandha a également été associée à des gains de masse musculaire et de force. Ces effets sont particulièrement intéressants pour les athlètes cherchant à optimiser leur performance et à développer leur musculature de manière naturelle.
 </t>
         </is>
       </c>
@@ -684,15 +706,54 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brevets
-Le CNRS a déposé cinq brevets concernant Withania somnifera :
-le premier brevet (2015) pour traiter ou prévenir les amyloïdopathies, incluant la maladie d’Alzheimer (à partir d’une substance extraite de l’Ashwagandha)[27] ;
-le deuxième brevet concerne une substance extraite de Withania somnifera pour traiter les alpha-synucléinopathies (les trois principaux types de synucléinopathies sont : la maladie de Parkinson[28], la démence à corps de Lewy et l'atrophie multisystématisée[29],[30],[27]) ;
-le troisième brevet concerne une substance extraite de Withania somnifera pour traiter les pathologies de démyélinisation (la sclérose en plaques est une des maladies provoquée par une démyélinisation)[27] ;
-le quatrième brevet concerne les processus d’extraction de Withania somnifera[27] ;
-le cinquième brevet concerne le traitement des maladies neuro-musculaires[27].
-Agence nationale de sécurité du médicament et des produits de santé
-En dépit des nombreuses vertus sanitaires attribuées à cette espèce,[réf. nécessaire],[15] la pharmacopée française classe la racine de Withania somnifera dans la « Liste B des plantes médicinales utilisées traditionnellement en l'état ou sous forme de préparation et dont les effets indésirables potentiels sont supérieurs au bénéfice thérapeutique attendu »[31].
+          <t>Brevets</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le CNRS a déposé cinq brevets concernant Withania somnifera :
+le premier brevet (2015) pour traiter ou prévenir les amyloïdopathies, incluant la maladie d’Alzheimer (à partir d’une substance extraite de l’Ashwagandha) ;
+le deuxième brevet concerne une substance extraite de Withania somnifera pour traiter les alpha-synucléinopathies (les trois principaux types de synucléinopathies sont : la maladie de Parkinson, la démence à corps de Lewy et l'atrophie multisystématisée) ;
+le troisième brevet concerne une substance extraite de Withania somnifera pour traiter les pathologies de démyélinisation (la sclérose en plaques est une des maladies provoquée par une démyélinisation) ;
+le quatrième brevet concerne les processus d’extraction de Withania somnifera ;
+le cinquième brevet concerne le traitement des maladies neuro-musculaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ashwagandha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ashwagandha</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Agence nationale de sécurité du médicament et des produits de santé</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dépit des nombreuses vertus sanitaires attribuées à cette espèce,[réf. nécessaire], la pharmacopée française classe la racine de Withania somnifera dans la « Liste B des plantes médicinales utilisées traditionnellement en l'état ou sous forme de préparation et dont les effets indésirables potentiels sont supérieurs au bénéfice thérapeutique attendu ».
 </t>
         </is>
       </c>
